--- a/biology/Neurosciences/Jacques_Paillard/Jacques_Paillard.xlsx
+++ b/biology/Neurosciences/Jacques_Paillard/Jacques_Paillard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Paillard est un neurophysiologiste français, né à Nemours le 5 mars 1920 et mort le 26 juillet 2006.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père était instituteur. Après des études secondaires au lycée Lakanal à Sceaux, il entre au Lycée Saint-Louis à Paris en 1938. Prisonnier de guerre en 1940, il s'évade en 1944. Ayant réussi d'abord le concours d'élève-conseiller à l'Institut national d'orientation professionnelle (INOP), il croise le chemin d'Alfred Fessard et Henri Piéron. Il obtient un diplôme de conseiller d'orientation et de psychologie appliquée en 1947. Il obtient un poste au CNRS, à l'Institut Marey.
 Il soutient sa thèse le 24 mai 1955, et est nommé assistant de psychophysiologie à la Sorbonne, puis maître-assistant à Marseille en 1957. Il crée l'Institut de neurophysiologie et de psychophysiologie (INP) du CNRS. 
@@ -544,7 +558,9 @@
           <t>Publications (sélection)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Paillard J (1982) Apraxia and the neurophysiology of motor control. Philos Trans R Soc Lond B Biol Sci. 298:111-134.
 Paillard J, Michel F, Stelmach G (1983) Localization without content. A tactile analogue of 'blind sight'. Arch Neurol. 40:548-551.
